--- a/export/export/AAPL_1mo_stock_data.xlsx
+++ b/export/export/AAPL_1mo_stock_data.xlsx
@@ -502,19 +502,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>217.5500030517578</v>
+        <v>224.9299926757812</v>
       </c>
       <c r="B2" t="n">
-        <v>222.7100067138672</v>
+        <v>227.2899932861328</v>
       </c>
       <c r="C2" t="n">
-        <v>217.5399932861328</v>
+        <v>224.0200042724609</v>
       </c>
       <c r="D2" t="n">
-        <v>220.6900024414062</v>
+        <v>226.3699951171875</v>
       </c>
       <c r="E2" t="n">
-        <v>59894900</v>
+        <v>42308700</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -525,10 +525,10 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>220.6900024414062</v>
+        <v>226.3699951171875</v>
       </c>
       <c r="K2" t="n">
-        <v>220.6900024414062</v>
+        <v>226.3699951171875</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -539,19 +539,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>224.9900054931641</v>
+        <v>227.3000030517578</v>
       </c>
       <c r="B3" t="n">
-        <v>229.8200073242188</v>
+        <v>228.5</v>
       </c>
       <c r="C3" t="n">
-        <v>224.6300048828125</v>
+        <v>225.4100036621094</v>
       </c>
       <c r="D3" t="n">
-        <v>228.8699951171875</v>
+        <v>227.5200042724609</v>
       </c>
       <c r="E3" t="n">
-        <v>66781300</v>
+        <v>36636700</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -562,33 +562,33 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>221.9484628530649</v>
+        <v>226.5469196026142</v>
       </c>
       <c r="K3" t="n">
-        <v>221.2959278247974</v>
+        <v>226.4551809805411</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6525350282674367</v>
+        <v>0.09173862207308048</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1305070056534874</v>
+        <v>0.0183477244146161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>229.9700012207031</v>
+        <v>228.4600067138672</v>
       </c>
       <c r="B4" t="n">
-        <v>233.0899963378906</v>
+        <v>229.5200042724609</v>
       </c>
       <c r="C4" t="n">
-        <v>227.6199951171875</v>
+        <v>227.3000030517578</v>
       </c>
       <c r="D4" t="n">
-        <v>228.1999969482422</v>
+        <v>227.7899932861328</v>
       </c>
       <c r="E4" t="n">
-        <v>318679900</v>
+        <v>34026000</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -599,33 +599,33 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>222.910237329246</v>
+        <v>226.7381617077709</v>
       </c>
       <c r="K4" t="n">
-        <v>221.80734035246</v>
+        <v>226.5540559661405</v>
       </c>
       <c r="L4" t="n">
-        <v>1.102896976785985</v>
+        <v>0.1841057416303897</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3249849998799869</v>
+        <v>0.05149932785777082</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>227.3399963378906</v>
+        <v>230.0399932861328</v>
       </c>
       <c r="B5" t="n">
-        <v>229.4499969482422</v>
+        <v>233</v>
       </c>
       <c r="C5" t="n">
-        <v>225.8099975585938</v>
+        <v>229.6499938964844</v>
       </c>
       <c r="D5" t="n">
-        <v>226.4700012207031</v>
+        <v>233</v>
       </c>
       <c r="E5" t="n">
-        <v>54146000</v>
+        <v>54541900</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -636,33 +636,33 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>223.4578933125471</v>
+        <v>227.7015214450369</v>
       </c>
       <c r="K5" t="n">
-        <v>222.1527226389966</v>
+        <v>227.0315333019819</v>
       </c>
       <c r="L5" t="n">
-        <v>1.305170673550521</v>
+        <v>0.669988143054951</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5210221346140936</v>
+        <v>0.1751970908972069</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>228.6499938964844</v>
+        <v>229.5200042724609</v>
       </c>
       <c r="B6" t="n">
-        <v>229.3500061035156</v>
+        <v>229.6499938964844</v>
       </c>
       <c r="C6" t="n">
-        <v>225.7299957275391</v>
+        <v>223.7400054931641</v>
       </c>
       <c r="D6" t="n">
-        <v>227.3699951171875</v>
+        <v>226.2100067138672</v>
       </c>
       <c r="E6" t="n">
-        <v>43556100</v>
+        <v>63285000</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -671,37 +671,37 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>226.3199981689453</v>
+        <v>228.1779998779297</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>224.0597551286456</v>
+        <v>227.4720576402415</v>
       </c>
       <c r="K6" t="n">
-        <v>222.5391872670107</v>
+        <v>226.9706794806401</v>
       </c>
       <c r="L6" t="n">
-        <v>1.520567861634902</v>
+        <v>0.5013781596014439</v>
       </c>
       <c r="M6" t="n">
-        <v>0.7209312800182552</v>
+        <v>0.2404333046380543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>224.9299926757812</v>
+        <v>225.8899993896484</v>
       </c>
       <c r="B7" t="n">
-        <v>227.2899932861328</v>
+        <v>227.3699951171875</v>
       </c>
       <c r="C7" t="n">
-        <v>224.0200042724609</v>
+        <v>223.0200042724609</v>
       </c>
       <c r="D7" t="n">
-        <v>226.3699951171875</v>
+        <v>226.7799987792969</v>
       </c>
       <c r="E7" t="n">
-        <v>42308700</v>
+        <v>32880600</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -710,37 +710,37 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>227.4559967041016</v>
+        <v>228.2600006103516</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>224.4151766653443</v>
+        <v>227.3655870462501</v>
       </c>
       <c r="K7" t="n">
-        <v>222.8229508114682</v>
+        <v>226.9565549842443</v>
       </c>
       <c r="L7" t="n">
-        <v>1.59222585387613</v>
+        <v>0.4090320620057639</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8951901947898302</v>
+        <v>0.2741530561115962</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>227.3000030517578</v>
+        <v>225.1399993896484</v>
       </c>
       <c r="B8" t="n">
-        <v>228.5</v>
+        <v>226.8099975585938</v>
       </c>
       <c r="C8" t="n">
-        <v>225.4100036621094</v>
+        <v>223.3200073242188</v>
       </c>
       <c r="D8" t="n">
-        <v>227.5200042724609</v>
+        <v>225.6699981689453</v>
       </c>
       <c r="E8" t="n">
-        <v>36636700</v>
+        <v>34044200</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>227.1859985351562</v>
+        <v>227.8899993896484</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>224.8928424510546</v>
+        <v>227.1047272189724</v>
       </c>
       <c r="K8" t="n">
-        <v>223.1708806974677</v>
+        <v>226.8612544794073</v>
       </c>
       <c r="L8" t="n">
-        <v>1.721961753586896</v>
+        <v>0.2434727395650782</v>
       </c>
       <c r="M8" t="n">
-        <v>1.060544506549244</v>
+        <v>0.2680169928022926</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>228.4600067138672</v>
+        <v>227.8999938964844</v>
       </c>
       <c r="B9" t="n">
-        <v>229.5200042724609</v>
+        <v>228</v>
       </c>
       <c r="C9" t="n">
-        <v>227.3000030517578</v>
+        <v>224.1300048828125</v>
       </c>
       <c r="D9" t="n">
-        <v>227.7899932861328</v>
+        <v>226.8000030517578</v>
       </c>
       <c r="E9" t="n">
-        <v>34026000</v>
+        <v>37245100</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -788,37 +788,37 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>227.1039978027344</v>
+        <v>227.6920013427734</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>225.3385579641435</v>
+        <v>227.0578465778625</v>
       </c>
       <c r="K9" t="n">
-        <v>223.5130371855169</v>
+        <v>226.8567173366185</v>
       </c>
       <c r="L9" t="n">
-        <v>1.825520778626583</v>
+        <v>0.20112924124399</v>
       </c>
       <c r="M9" t="n">
-        <v>1.213539760964711</v>
+        <v>0.2546394424906321</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>230.0399932861328</v>
+        <v>224.5</v>
       </c>
       <c r="B10" t="n">
-        <v>233</v>
+        <v>225.6900024414062</v>
       </c>
       <c r="C10" t="n">
-        <v>229.6499938964844</v>
+        <v>221.3300018310547</v>
       </c>
       <c r="D10" t="n">
-        <v>233</v>
+        <v>221.6900024414062</v>
       </c>
       <c r="E10" t="n">
-        <v>54541900</v>
+        <v>39505400</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -827,37 +827,37 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>228.4099975585937</v>
+        <v>225.4300018310547</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>226.5172413542753</v>
+        <v>226.232024403023</v>
       </c>
       <c r="K10" t="n">
-        <v>224.2157751717749</v>
+        <v>226.4739977147509</v>
       </c>
       <c r="L10" t="n">
-        <v>2.301466182500349</v>
+        <v>-0.2419733117278611</v>
       </c>
       <c r="M10" t="n">
-        <v>1.431125045271839</v>
+        <v>0.1553168916469335</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>229.5200042724609</v>
+        <v>224.3000030517578</v>
       </c>
       <c r="B11" t="n">
-        <v>229.6499938964844</v>
+        <v>225.9799957275391</v>
       </c>
       <c r="C11" t="n">
-        <v>223.7400054931641</v>
+        <v>223.25</v>
       </c>
       <c r="D11" t="n">
-        <v>226.2100067138672</v>
+        <v>225.7700042724609</v>
       </c>
       <c r="E11" t="n">
-        <v>63285000</v>
+        <v>31855700</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -866,37 +866,37 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>228.1779998779297</v>
+        <v>225.3420013427734</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>226.4699744865202</v>
+        <v>226.1609443829366</v>
       </c>
       <c r="K11" t="n">
-        <v>224.3634960267447</v>
+        <v>226.421850052359</v>
       </c>
       <c r="L11" t="n">
-        <v>2.106478459775474</v>
+        <v>-0.2609056694224705</v>
       </c>
       <c r="M11" t="n">
-        <v>1.566195728172566</v>
+        <v>0.07207237943305271</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>225.8899993896484</v>
+        <v>225.2299957275391</v>
       </c>
       <c r="B12" t="n">
-        <v>227.3699951171875</v>
+        <v>229.75</v>
       </c>
       <c r="C12" t="n">
-        <v>223.0200042724609</v>
+        <v>224.8300018310547</v>
       </c>
       <c r="D12" t="n">
-        <v>226.7799987792969</v>
+        <v>229.5399932861328</v>
       </c>
       <c r="E12" t="n">
-        <v>32880600</v>
+        <v>33591100</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -905,37 +905,37 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>228.2600006103516</v>
+        <v>225.8940002441406</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>226.5176705315628</v>
+        <v>226.6807980603514</v>
       </c>
       <c r="K12" t="n">
-        <v>224.5424962306375</v>
+        <v>226.6528236252312</v>
       </c>
       <c r="L12" t="n">
-        <v>1.975174300925318</v>
+        <v>0.02797443512019981</v>
       </c>
       <c r="M12" t="n">
-        <v>1.647991442723116</v>
+        <v>0.06325279057048214</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>225.1399993896484</v>
+        <v>227.7799987792969</v>
       </c>
       <c r="B13" t="n">
-        <v>226.8099975585938</v>
+        <v>229.5</v>
       </c>
       <c r="C13" t="n">
-        <v>223.3200073242188</v>
+        <v>227.1699981689453</v>
       </c>
       <c r="D13" t="n">
-        <v>225.6699981689453</v>
+        <v>229.0399932861328</v>
       </c>
       <c r="E13" t="n">
-        <v>34044200</v>
+        <v>28183500</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -944,37 +944,37 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>227.8899993896484</v>
+        <v>226.5679992675781</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>226.3872593988524</v>
+        <v>227.04375117201</v>
       </c>
       <c r="K13" t="n">
-        <v>224.6260148927343</v>
+        <v>226.8296510075202</v>
       </c>
       <c r="L13" t="n">
-        <v>1.761244506118061</v>
+        <v>0.2141001644898779</v>
       </c>
       <c r="M13" t="n">
-        <v>1.670642055402106</v>
+        <v>0.09342226535436129</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>227.8999938964844</v>
+        <v>229.3000030517578</v>
       </c>
       <c r="B14" t="n">
-        <v>228</v>
+        <v>229.4100036621094</v>
       </c>
       <c r="C14" t="n">
-        <v>224.1300048828125</v>
+        <v>227.3399963378906</v>
       </c>
       <c r="D14" t="n">
-        <v>226.8000030517578</v>
+        <v>227.5500030517578</v>
       </c>
       <c r="E14" t="n">
-        <v>37245100</v>
+        <v>31759200</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -983,37 +983,37 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>227.6920013427734</v>
+        <v>226.7179992675781</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>226.4507584223763</v>
+        <v>227.1216360765866</v>
       </c>
       <c r="K14" t="n">
-        <v>224.787051052662</v>
+        <v>226.8830104182044</v>
       </c>
       <c r="L14" t="n">
-        <v>1.663707369714302</v>
+        <v>0.2386256583822046</v>
       </c>
       <c r="M14" t="n">
-        <v>1.669255118264545</v>
+        <v>0.12246294395993</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>224.5</v>
+        <v>228.6999969482422</v>
       </c>
       <c r="B15" t="n">
-        <v>225.6900024414062</v>
+        <v>231.7299957275391</v>
       </c>
       <c r="C15" t="n">
-        <v>221.3300018310547</v>
+        <v>228.6000061035156</v>
       </c>
       <c r="D15" t="n">
-        <v>221.6900024414062</v>
+        <v>231.3000030517578</v>
       </c>
       <c r="E15" t="n">
-        <v>39505400</v>
+        <v>39882100</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1022,37 +1022,37 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>225.4300018310547</v>
+        <v>228.6399993896484</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>225.718334425304</v>
+        <v>227.7644617650745</v>
       </c>
       <c r="K15" t="n">
-        <v>224.5576400444209</v>
+        <v>227.2101950577269</v>
       </c>
       <c r="L15" t="n">
-        <v>1.160694380883115</v>
+        <v>0.5542667073476366</v>
       </c>
       <c r="M15" t="n">
-        <v>1.567542970788259</v>
+        <v>0.2088236966374713</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>224.3000030517578</v>
+        <v>233.6100006103516</v>
       </c>
       <c r="B16" t="n">
-        <v>225.9799957275391</v>
+        <v>237.4900054931641</v>
       </c>
       <c r="C16" t="n">
-        <v>223.25</v>
+        <v>232.3699951171875</v>
       </c>
       <c r="D16" t="n">
-        <v>225.7700042724609</v>
+        <v>233.8500061035156</v>
       </c>
       <c r="E16" t="n">
-        <v>31855700</v>
+        <v>64751400</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1061,39 +1061,39 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>225.3420013427734</v>
+        <v>230.2559997558594</v>
       </c>
       <c r="I16" t="n">
-        <v>56.70185315883281</v>
+        <v>59.97867513907164</v>
       </c>
       <c r="J16" t="n">
-        <v>225.7262836325589</v>
+        <v>228.7006993556039</v>
       </c>
       <c r="K16" t="n">
-        <v>224.6474448020534</v>
+        <v>227.7020329129705</v>
       </c>
       <c r="L16" t="n">
-        <v>1.078838830505447</v>
+        <v>0.9986664426334357</v>
       </c>
       <c r="M16" t="n">
-        <v>1.469802142731697</v>
+        <v>0.3667922458366642</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>225.2299957275391</v>
+        <v>231.6000061035156</v>
       </c>
       <c r="B17" t="n">
-        <v>229.75</v>
+        <v>232.1199951171875</v>
       </c>
       <c r="C17" t="n">
-        <v>224.8300018310547</v>
+        <v>229.8399963378906</v>
       </c>
       <c r="D17" t="n">
-        <v>229.5399932861328</v>
+        <v>231.7799987792969</v>
       </c>
       <c r="E17" t="n">
-        <v>33591100</v>
+        <v>34082200</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1102,39 +1102,39 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>225.8940002441406</v>
+        <v>230.7040008544922</v>
       </c>
       <c r="I17" t="n">
-        <v>51.00029661030463</v>
+        <v>55.54687093322249</v>
       </c>
       <c r="J17" t="n">
-        <v>226.3130081946472</v>
+        <v>229.1744377284798</v>
       </c>
       <c r="K17" t="n">
-        <v>225.0098558008741</v>
+        <v>228.0041044586243</v>
       </c>
       <c r="L17" t="n">
-        <v>1.303152393773075</v>
+        <v>1.17033326985549</v>
       </c>
       <c r="M17" t="n">
-        <v>1.436472192939973</v>
+        <v>0.5275004506404295</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>227.7799987792969</v>
+        <v>233.4299926757812</v>
       </c>
       <c r="B18" t="n">
-        <v>229.5</v>
+        <v>233.8500061035156</v>
       </c>
       <c r="C18" t="n">
-        <v>227.1699981689453</v>
+        <v>230.5200042724609</v>
       </c>
       <c r="D18" t="n">
-        <v>229.0399932861328</v>
+        <v>232.1499938964844</v>
       </c>
       <c r="E18" t="n">
-        <v>28183500</v>
+        <v>32993800</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1143,39 +1143,39 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>226.5679992675781</v>
+        <v>231.3260009765625</v>
       </c>
       <c r="I18" t="n">
-        <v>51.26049958372603</v>
+        <v>55.66234069916987</v>
       </c>
       <c r="J18" t="n">
-        <v>226.732544362568</v>
+        <v>229.6322156004805</v>
       </c>
       <c r="K18" t="n">
-        <v>225.3083845034859</v>
+        <v>228.3112073799473</v>
       </c>
       <c r="L18" t="n">
-        <v>1.424159859082181</v>
+        <v>1.32100822053323</v>
       </c>
       <c r="M18" t="n">
-        <v>1.434009726168414</v>
+        <v>0.6862020046189896</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>229.3000030517578</v>
+        <v>236.1799926757812</v>
       </c>
       <c r="B19" t="n">
-        <v>229.4100036621094</v>
+        <v>236.1799926757812</v>
       </c>
       <c r="C19" t="n">
-        <v>227.3399963378906</v>
+        <v>234.0099945068359</v>
       </c>
       <c r="D19" t="n">
-        <v>227.5500030517578</v>
+        <v>235</v>
       </c>
       <c r="E19" t="n">
-        <v>31759200</v>
+        <v>46431500</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1184,39 +1184,39 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>226.7179992675781</v>
+        <v>232.8160003662109</v>
       </c>
       <c r="I19" t="n">
-        <v>51.63241047100712</v>
+        <v>52.76701837050923</v>
       </c>
       <c r="J19" t="n">
-        <v>226.858307237828</v>
+        <v>230.458028585022</v>
       </c>
       <c r="K19" t="n">
-        <v>225.4744303218764</v>
+        <v>228.8066734999512</v>
       </c>
       <c r="L19" t="n">
-        <v>1.383876915951646</v>
+        <v>1.651355085070804</v>
       </c>
       <c r="M19" t="n">
-        <v>1.423983164125061</v>
+        <v>0.8792326207093526</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>228.6999969482422</v>
+        <v>234.4499969482422</v>
       </c>
       <c r="B20" t="n">
-        <v>231.7299957275391</v>
+        <v>236.8500061035156</v>
       </c>
       <c r="C20" t="n">
-        <v>228.6000061035156</v>
+        <v>234.4499969482422</v>
       </c>
       <c r="D20" t="n">
-        <v>231.3000030517578</v>
+        <v>236.4799957275391</v>
       </c>
       <c r="E20" t="n">
-        <v>39882100</v>
+        <v>36254500</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1225,39 +1225,39 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>228.6399993896484</v>
+        <v>233.8519989013672</v>
       </c>
       <c r="I20" t="n">
-        <v>55.46898191579674</v>
+        <v>66.65584412370563</v>
       </c>
       <c r="J20" t="n">
-        <v>227.5416450553557</v>
+        <v>231.3844850684861</v>
       </c>
       <c r="K20" t="n">
-        <v>225.9059542277935</v>
+        <v>229.3750677390317</v>
       </c>
       <c r="L20" t="n">
-        <v>1.635690827562172</v>
+        <v>2.009417329454379</v>
       </c>
       <c r="M20" t="n">
-        <v>1.466324696812483</v>
+        <v>1.105269562458358</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>233.6100006103516</v>
+        <v>233.8899993896484</v>
       </c>
       <c r="B21" t="n">
-        <v>237.4900054931641</v>
+        <v>236.2200012207031</v>
       </c>
       <c r="C21" t="n">
-        <v>232.3699951171875</v>
+        <v>232.6000061035156</v>
       </c>
       <c r="D21" t="n">
-        <v>233.8500061035156</v>
+        <v>235.8600006103516</v>
       </c>
       <c r="E21" t="n">
-        <v>64751400</v>
+        <v>38846600</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1266,39 +1266,39 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>230.2559997558594</v>
+        <v>234.2539978027344</v>
       </c>
       <c r="I21" t="n">
-        <v>59.97867513907164</v>
+        <v>64.70208044369095</v>
       </c>
       <c r="J21" t="n">
-        <v>228.512162139688</v>
+        <v>232.0730259210808</v>
       </c>
       <c r="K21" t="n">
-        <v>226.494402514884</v>
+        <v>229.8554331369073</v>
       </c>
       <c r="L21" t="n">
-        <v>2.017759624803944</v>
+        <v>2.217592784173547</v>
       </c>
       <c r="M21" t="n">
-        <v>1.576611682410775</v>
+        <v>1.327734206801396</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>231.6000061035156</v>
+        <v>234.0800018310547</v>
       </c>
       <c r="B22" t="n">
-        <v>232.1199951171875</v>
+        <v>235.1399993896484</v>
       </c>
       <c r="C22" t="n">
-        <v>229.8399963378906</v>
+        <v>227.7599945068359</v>
       </c>
       <c r="D22" t="n">
-        <v>231.7799987792969</v>
+        <v>230.7599945068359</v>
       </c>
       <c r="E22" t="n">
-        <v>34082200</v>
+        <v>52287000</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1307,39 +1307,39 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>230.7040008544922</v>
+        <v>234.0499969482422</v>
       </c>
       <c r="I22" t="n">
-        <v>55.54687093322249</v>
+        <v>57.29853319563809</v>
       </c>
       <c r="J22" t="n">
-        <v>229.0149062380893</v>
+        <v>231.8710210881201</v>
       </c>
       <c r="K22" t="n">
-        <v>226.8859281640998</v>
+        <v>229.9224376828279</v>
       </c>
       <c r="L22" t="n">
-        <v>2.128978073989543</v>
+        <v>1.948583405292169</v>
       </c>
       <c r="M22" t="n">
-        <v>1.687084960726529</v>
+        <v>1.451904046499551</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>233.4299926757812</v>
+        <v>229.9799957275391</v>
       </c>
       <c r="B23" t="n">
-        <v>233.8500061035156</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="C23" t="n">
-        <v>230.5200042724609</v>
+        <v>228.4100036621094</v>
       </c>
       <c r="D23" t="n">
-        <v>232.1499938964844</v>
+        <v>230.5700073242188</v>
       </c>
       <c r="E23" t="n">
-        <v>32978900</v>
+        <v>31109500</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -1348,39 +1348,39 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>231.3260009765625</v>
+        <v>233.7339996337891</v>
       </c>
       <c r="I23" t="n">
-        <v>55.66234069916987</v>
+        <v>55.55556554920209</v>
       </c>
       <c r="J23" t="n">
-        <v>229.497227416304</v>
+        <v>231.670865124443</v>
       </c>
       <c r="K23" t="n">
-        <v>227.2758589590912</v>
+        <v>229.9704058044125</v>
       </c>
       <c r="L23" t="n">
-        <v>2.221368457212748</v>
+        <v>1.700459320030518</v>
       </c>
       <c r="M23" t="n">
-        <v>1.793941660023773</v>
+        <v>1.501615101205744</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>235.8800048828125</v>
+        <v>229.7400054931641</v>
       </c>
       <c r="B24" t="n">
-        <v>236.0500030517578</v>
+        <v>233.1999969482422</v>
       </c>
       <c r="C24" t="n">
-        <v>234.0200042724609</v>
+        <v>229.5700073242188</v>
       </c>
       <c r="D24" t="n">
-        <v>235.0700073242188</v>
+        <v>231.5800018310547</v>
       </c>
       <c r="E24" t="n">
-        <v>16610620</v>
+        <v>23525946</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -1389,22 +1389,22 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>232.8300018310547</v>
+        <v>233.05</v>
       </c>
       <c r="I24" t="n">
-        <v>52.85833721721087</v>
+        <v>66.57728612226379</v>
       </c>
       <c r="J24" t="n">
-        <v>230.3545781713678</v>
+        <v>231.6568861562294</v>
       </c>
       <c r="K24" t="n">
-        <v>227.853203282434</v>
+        <v>230.0896351397193</v>
       </c>
       <c r="L24" t="n">
-        <v>2.501374888933782</v>
+        <v>1.567251016510141</v>
       </c>
       <c r="M24" t="n">
-        <v>1.935428305805775</v>
+        <v>1.514742284266624</v>
       </c>
     </row>
   </sheetData>

--- a/export/export/AAPL_1mo_stock_data.xlsx
+++ b/export/export/AAPL_1mo_stock_data.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -502,19 +502,19 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>224.9299926757812</v>
+        <v>230.0399932861328</v>
       </c>
       <c r="B2" t="n">
-        <v>227.2899932861328</v>
+        <v>233</v>
       </c>
       <c r="C2" t="n">
-        <v>224.0200042724609</v>
+        <v>229.6499938964844</v>
       </c>
       <c r="D2" t="n">
-        <v>226.3699951171875</v>
+        <v>233</v>
       </c>
       <c r="E2" t="n">
-        <v>42308700</v>
+        <v>54541900</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -525,10 +525,10 @@
       <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>226.3699951171875</v>
+        <v>233</v>
       </c>
       <c r="K2" t="n">
-        <v>226.3699951171875</v>
+        <v>233</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -539,19 +539,19 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>227.3000030517578</v>
+        <v>229.5200042724609</v>
       </c>
       <c r="B3" t="n">
-        <v>228.5</v>
+        <v>229.6499938964844</v>
       </c>
       <c r="C3" t="n">
-        <v>225.4100036621094</v>
+        <v>223.7400054931641</v>
       </c>
       <c r="D3" t="n">
-        <v>227.5200042724609</v>
+        <v>226.2100067138672</v>
       </c>
       <c r="E3" t="n">
-        <v>36636700</v>
+        <v>63285000</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -562,33 +562,33 @@
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
-        <v>226.5469196026142</v>
+        <v>231.9553856482873</v>
       </c>
       <c r="K3" t="n">
-        <v>226.4551809805411</v>
+        <v>232.4970375343605</v>
       </c>
       <c r="L3" t="n">
-        <v>0.09173862207308048</v>
+        <v>-0.5416518860732538</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0183477244146161</v>
+        <v>-0.1083303772146508</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>228.4600067138672</v>
+        <v>225.8899993896484</v>
       </c>
       <c r="B4" t="n">
-        <v>229.5200042724609</v>
+        <v>227.3699951171875</v>
       </c>
       <c r="C4" t="n">
-        <v>227.3000030517578</v>
+        <v>223.0200042724609</v>
       </c>
       <c r="D4" t="n">
-        <v>227.7899932861328</v>
+        <v>226.7799987792969</v>
       </c>
       <c r="E4" t="n">
-        <v>34026000</v>
+        <v>32880600</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -599,33 +599,33 @@
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
-        <v>226.7381617077709</v>
+        <v>231.1591722838272</v>
       </c>
       <c r="K4" t="n">
-        <v>226.5540559661405</v>
+        <v>232.0735531821336</v>
       </c>
       <c r="L4" t="n">
-        <v>0.1841057416303897</v>
+        <v>-0.9143808983063479</v>
       </c>
       <c r="M4" t="n">
-        <v>0.05149932785777082</v>
+        <v>-0.2695404814329902</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>230.0399932861328</v>
+        <v>225.1399993896484</v>
       </c>
       <c r="B5" t="n">
-        <v>233</v>
+        <v>226.8099975585938</v>
       </c>
       <c r="C5" t="n">
-        <v>229.6499938964844</v>
+        <v>223.3200073242188</v>
       </c>
       <c r="D5" t="n">
-        <v>233</v>
+        <v>225.6699981689453</v>
       </c>
       <c r="E5" t="n">
-        <v>54541900</v>
+        <v>34044200</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -636,33 +636,33 @@
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
-        <v>227.7015214450369</v>
+        <v>230.3146839584608</v>
       </c>
       <c r="K5" t="n">
-        <v>227.0315333019819</v>
+        <v>231.5992157737493</v>
       </c>
       <c r="L5" t="n">
-        <v>0.669988143054951</v>
+        <v>-1.284531815288489</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1751970908972069</v>
+        <v>-0.4725387482040899</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>229.5200042724609</v>
+        <v>227.8999938964844</v>
       </c>
       <c r="B6" t="n">
-        <v>229.6499938964844</v>
+        <v>228</v>
       </c>
       <c r="C6" t="n">
-        <v>223.7400054931641</v>
+        <v>224.1300048828125</v>
       </c>
       <c r="D6" t="n">
-        <v>226.2100067138672</v>
+        <v>226.8000030517578</v>
       </c>
       <c r="E6" t="n">
-        <v>63285000</v>
+        <v>37245100</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -671,37 +671,37 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>228.1779998779297</v>
+        <v>227.6920013427734</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>227.4720576402415</v>
+        <v>229.773963818968</v>
       </c>
       <c r="K6" t="n">
-        <v>226.9706794806401</v>
+        <v>231.2437185350832</v>
       </c>
       <c r="L6" t="n">
-        <v>0.5013781596014439</v>
+        <v>-1.469754716115204</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2404333046380543</v>
+        <v>-0.6719819417863129</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>225.8899993896484</v>
+        <v>224.5</v>
       </c>
       <c r="B7" t="n">
-        <v>227.3699951171875</v>
+        <v>225.6900024414062</v>
       </c>
       <c r="C7" t="n">
-        <v>223.0200042724609</v>
+        <v>221.3300018310547</v>
       </c>
       <c r="D7" t="n">
-        <v>226.7799987792969</v>
+        <v>221.6900024414062</v>
       </c>
       <c r="E7" t="n">
-        <v>32880600</v>
+        <v>39505400</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -710,37 +710,37 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>228.2600006103516</v>
+        <v>225.4300018310547</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
-        <v>227.3655870462501</v>
+        <v>228.5302774531893</v>
       </c>
       <c r="K7" t="n">
-        <v>226.9565549842443</v>
+        <v>230.5360358614775</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4090320620057639</v>
+        <v>-2.005758408288216</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2741530561115962</v>
+        <v>-0.9387372350866936</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>225.1399993896484</v>
+        <v>224.3000030517578</v>
       </c>
       <c r="B8" t="n">
-        <v>226.8099975585938</v>
+        <v>225.9799957275391</v>
       </c>
       <c r="C8" t="n">
-        <v>223.3200073242188</v>
+        <v>223.25</v>
       </c>
       <c r="D8" t="n">
-        <v>225.6699981689453</v>
+        <v>225.7700042724609</v>
       </c>
       <c r="E8" t="n">
-        <v>34044200</v>
+        <v>31855700</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -749,37 +749,37 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>227.8899993896484</v>
+        <v>225.3420013427734</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="n">
-        <v>227.1047272189724</v>
+        <v>228.1056200407696</v>
       </c>
       <c r="K8" t="n">
-        <v>226.8612544794073</v>
+        <v>230.1829964845133</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2434727395650782</v>
+        <v>-2.077376443743731</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2680169928022926</v>
+        <v>-1.166465076818101</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>227.8999938964844</v>
+        <v>225.2299957275391</v>
       </c>
       <c r="B9" t="n">
-        <v>228</v>
+        <v>229.75</v>
       </c>
       <c r="C9" t="n">
-        <v>224.1300048828125</v>
+        <v>224.8300018310547</v>
       </c>
       <c r="D9" t="n">
-        <v>226.8000030517578</v>
+        <v>229.5399932861328</v>
       </c>
       <c r="E9" t="n">
-        <v>37245100</v>
+        <v>33591100</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -788,37 +788,37 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>227.6920013427734</v>
+        <v>225.8940002441406</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
-        <v>227.0578465778625</v>
+        <v>228.3262928477485</v>
       </c>
       <c r="K9" t="n">
-        <v>226.8567173366185</v>
+        <v>230.1353666179666</v>
       </c>
       <c r="L9" t="n">
-        <v>0.20112924124399</v>
+        <v>-1.809073770218049</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2546394424906321</v>
+        <v>-1.294986815498091</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>224.5</v>
+        <v>227.7799987792969</v>
       </c>
       <c r="B10" t="n">
-        <v>225.6900024414062</v>
+        <v>229.5</v>
       </c>
       <c r="C10" t="n">
-        <v>221.3300018310547</v>
+        <v>227.1699981689453</v>
       </c>
       <c r="D10" t="n">
-        <v>221.6900024414062</v>
+        <v>229.0399932861328</v>
       </c>
       <c r="E10" t="n">
-        <v>39505400</v>
+        <v>28183500</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -827,37 +827,37 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>225.4300018310547</v>
+        <v>226.5679992675781</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
-        <v>226.232024403023</v>
+        <v>228.4360929151923</v>
       </c>
       <c r="K10" t="n">
-        <v>226.4739977147509</v>
+        <v>230.0542278526455</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.2419733117278611</v>
+        <v>-1.618134937453277</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1553168916469335</v>
+        <v>-1.359616439889128</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>224.3000030517578</v>
+        <v>229.3000030517578</v>
       </c>
       <c r="B11" t="n">
-        <v>225.9799957275391</v>
+        <v>229.4100036621094</v>
       </c>
       <c r="C11" t="n">
-        <v>223.25</v>
+        <v>227.3399963378906</v>
       </c>
       <c r="D11" t="n">
-        <v>225.7700042724609</v>
+        <v>227.5500030517578</v>
       </c>
       <c r="E11" t="n">
-        <v>31855700</v>
+        <v>31759200</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -866,37 +866,37 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>225.3420013427734</v>
+        <v>226.7179992675781</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
-        <v>226.1609443829366</v>
+        <v>228.2997713977408</v>
       </c>
       <c r="K11" t="n">
-        <v>226.421850052359</v>
+        <v>229.8687297192464</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.2609056694224705</v>
+        <v>-1.568958321505619</v>
       </c>
       <c r="M11" t="n">
-        <v>0.07207237943305271</v>
+        <v>-1.401484816212426</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>225.2299957275391</v>
+        <v>228.6999969482422</v>
       </c>
       <c r="B12" t="n">
-        <v>229.75</v>
+        <v>231.7299957275391</v>
       </c>
       <c r="C12" t="n">
-        <v>224.8300018310547</v>
+        <v>228.6000061035156</v>
       </c>
       <c r="D12" t="n">
-        <v>229.5399932861328</v>
+        <v>231.3000030517578</v>
       </c>
       <c r="E12" t="n">
-        <v>33591100</v>
+        <v>39882100</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -905,37 +905,37 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>225.8940002441406</v>
+        <v>228.6399993896484</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>226.6807980603514</v>
+        <v>228.7613454983588</v>
       </c>
       <c r="K12" t="n">
-        <v>226.6528236252312</v>
+        <v>229.9747499660991</v>
       </c>
       <c r="L12" t="n">
-        <v>0.02797443512019981</v>
+        <v>-1.213404467740304</v>
       </c>
       <c r="M12" t="n">
-        <v>0.06325279057048214</v>
+        <v>-1.363868746518002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>227.7799987792969</v>
+        <v>233.6100006103516</v>
       </c>
       <c r="B13" t="n">
-        <v>229.5</v>
+        <v>237.4900054931641</v>
       </c>
       <c r="C13" t="n">
-        <v>227.1699981689453</v>
+        <v>232.3699951171875</v>
       </c>
       <c r="D13" t="n">
-        <v>229.0399932861328</v>
+        <v>233.8500061035156</v>
       </c>
       <c r="E13" t="n">
-        <v>28183500</v>
+        <v>64751400</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -944,37 +944,37 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>226.5679992675781</v>
+        <v>230.2559997558594</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>227.04375117201</v>
+        <v>229.5442163606906</v>
       </c>
       <c r="K13" t="n">
-        <v>226.8296510075202</v>
+        <v>230.2618059762781</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2141001644898779</v>
+        <v>-0.7175896155874852</v>
       </c>
       <c r="M13" t="n">
-        <v>0.09342226535436129</v>
+        <v>-1.234612920331899</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>229.3000030517578</v>
+        <v>231.6000061035156</v>
       </c>
       <c r="B14" t="n">
-        <v>229.4100036621094</v>
+        <v>232.1199951171875</v>
       </c>
       <c r="C14" t="n">
-        <v>227.3399963378906</v>
+        <v>229.8399963378906</v>
       </c>
       <c r="D14" t="n">
-        <v>227.5500030517578</v>
+        <v>231.7799987792969</v>
       </c>
       <c r="E14" t="n">
-        <v>31759200</v>
+        <v>34082200</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -983,37 +983,37 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.7179992675781</v>
+        <v>230.7040008544922</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>227.1216360765866</v>
+        <v>229.88818288663</v>
       </c>
       <c r="K14" t="n">
-        <v>226.8830104182044</v>
+        <v>230.3742647024277</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2386256583822046</v>
+        <v>-0.4860818157976325</v>
       </c>
       <c r="M14" t="n">
-        <v>0.12246294395993</v>
+        <v>-1.084906699425046</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>228.6999969482422</v>
+        <v>233.4299926757812</v>
       </c>
       <c r="B15" t="n">
-        <v>231.7299957275391</v>
+        <v>233.8500061035156</v>
       </c>
       <c r="C15" t="n">
-        <v>228.6000061035156</v>
+        <v>230.5200042724609</v>
       </c>
       <c r="D15" t="n">
-        <v>231.3000030517578</v>
+        <v>232.1499938964844</v>
       </c>
       <c r="E15" t="n">
-        <v>39882100</v>
+        <v>32993800</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1022,37 +1022,37 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>228.6399993896484</v>
+        <v>231.3260009765625</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>227.7644617650745</v>
+        <v>230.236153811223</v>
       </c>
       <c r="K15" t="n">
-        <v>227.2101950577269</v>
+        <v>230.5058001982837</v>
       </c>
       <c r="L15" t="n">
-        <v>0.5542667073476366</v>
+        <v>-0.2696463870607033</v>
       </c>
       <c r="M15" t="n">
-        <v>0.2088236966374713</v>
+        <v>-0.9218546369521772</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>233.6100006103516</v>
+        <v>236.1799926757812</v>
       </c>
       <c r="B16" t="n">
-        <v>237.4900054931641</v>
+        <v>236.1799926757812</v>
       </c>
       <c r="C16" t="n">
-        <v>232.3699951171875</v>
+        <v>234.0099945068359</v>
       </c>
       <c r="D16" t="n">
-        <v>233.8500061035156</v>
+        <v>235</v>
       </c>
       <c r="E16" t="n">
-        <v>64751400</v>
+        <v>46431500</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1061,39 +1061,39 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>230.2559997558594</v>
+        <v>232.8160003662109</v>
       </c>
       <c r="I16" t="n">
-        <v>59.97867513907164</v>
+        <v>52.76701837050923</v>
       </c>
       <c r="J16" t="n">
-        <v>228.7006993556039</v>
+        <v>230.969053224881</v>
       </c>
       <c r="K16" t="n">
-        <v>227.7020329129705</v>
+        <v>230.8387038872997</v>
       </c>
       <c r="L16" t="n">
-        <v>0.9986664426334357</v>
+        <v>0.130349337581265</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3667922458366642</v>
+        <v>-0.7114138420454889</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>231.6000061035156</v>
+        <v>234.4499969482422</v>
       </c>
       <c r="B17" t="n">
-        <v>232.1199951171875</v>
+        <v>236.8500061035156</v>
       </c>
       <c r="C17" t="n">
-        <v>229.8399963378906</v>
+        <v>234.4499969482422</v>
       </c>
       <c r="D17" t="n">
-        <v>231.7799987792969</v>
+        <v>236.4799957275391</v>
       </c>
       <c r="E17" t="n">
-        <v>34082200</v>
+        <v>36254500</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1102,39 +1102,39 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>230.7040008544922</v>
+        <v>233.8519989013672</v>
       </c>
       <c r="I17" t="n">
-        <v>55.54687093322249</v>
+        <v>66.65584412370563</v>
       </c>
       <c r="J17" t="n">
-        <v>229.1744377284798</v>
+        <v>231.8168905329823</v>
       </c>
       <c r="K17" t="n">
-        <v>228.0041044586243</v>
+        <v>231.2565773569471</v>
       </c>
       <c r="L17" t="n">
-        <v>1.17033326985549</v>
+        <v>0.5603131760351516</v>
       </c>
       <c r="M17" t="n">
-        <v>0.5275004506404295</v>
+        <v>-0.4570684384293608</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>233.4299926757812</v>
+        <v>233.8899993896484</v>
       </c>
       <c r="B18" t="n">
-        <v>233.8500061035156</v>
+        <v>236.2200012207031</v>
       </c>
       <c r="C18" t="n">
-        <v>230.5200042724609</v>
+        <v>232.6000061035156</v>
       </c>
       <c r="D18" t="n">
-        <v>232.1499938964844</v>
+        <v>235.8600006103516</v>
       </c>
       <c r="E18" t="n">
-        <v>32993800</v>
+        <v>38846600</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1143,39 +1143,39 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>231.3260009765625</v>
+        <v>234.2539978027344</v>
       </c>
       <c r="I18" t="n">
-        <v>55.66234069916987</v>
+        <v>64.70208044369095</v>
       </c>
       <c r="J18" t="n">
-        <v>229.6322156004805</v>
+        <v>232.4389074679622</v>
       </c>
       <c r="K18" t="n">
-        <v>228.3112073799473</v>
+        <v>231.5975716720141</v>
       </c>
       <c r="L18" t="n">
-        <v>1.32100822053323</v>
+        <v>0.841335795948055</v>
       </c>
       <c r="M18" t="n">
-        <v>0.6862020046189896</v>
+        <v>-0.1973875915538777</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>236.1799926757812</v>
+        <v>234.0800018310547</v>
       </c>
       <c r="B19" t="n">
-        <v>236.1799926757812</v>
+        <v>235.1399993896484</v>
       </c>
       <c r="C19" t="n">
-        <v>234.0099945068359</v>
+        <v>227.7599945068359</v>
       </c>
       <c r="D19" t="n">
-        <v>235</v>
+        <v>230.7599945068359</v>
       </c>
       <c r="E19" t="n">
-        <v>46431500</v>
+        <v>52287000</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1184,39 +1184,39 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>232.8160003662109</v>
+        <v>234.0499969482422</v>
       </c>
       <c r="I19" t="n">
-        <v>52.76701837050923</v>
+        <v>57.29853319563809</v>
       </c>
       <c r="J19" t="n">
-        <v>230.458028585022</v>
+        <v>232.1806131662505</v>
       </c>
       <c r="K19" t="n">
-        <v>228.8066734999512</v>
+        <v>231.5355289190379</v>
       </c>
       <c r="L19" t="n">
-        <v>1.651355085070804</v>
+        <v>0.6450842472125089</v>
       </c>
       <c r="M19" t="n">
-        <v>0.8792326207093526</v>
+        <v>-0.02889322380060039</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>234.4499969482422</v>
+        <v>229.9799957275391</v>
       </c>
       <c r="B20" t="n">
-        <v>236.8500061035156</v>
+        <v>230.8200073242188</v>
       </c>
       <c r="C20" t="n">
-        <v>234.4499969482422</v>
+        <v>228.4100036621094</v>
       </c>
       <c r="D20" t="n">
-        <v>236.4799957275391</v>
+        <v>230.5700073242188</v>
       </c>
       <c r="E20" t="n">
-        <v>36254500</v>
+        <v>31109500</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -1225,39 +1225,39 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>233.8519989013672</v>
+        <v>233.7339996337891</v>
       </c>
       <c r="I20" t="n">
-        <v>66.65584412370563</v>
+        <v>55.55556554920209</v>
       </c>
       <c r="J20" t="n">
-        <v>231.3844850684861</v>
+        <v>231.9328276520917</v>
       </c>
       <c r="K20" t="n">
-        <v>229.3750677390317</v>
+        <v>231.4640088009032</v>
       </c>
       <c r="L20" t="n">
-        <v>2.009417329454379</v>
+        <v>0.4688188511885301</v>
       </c>
       <c r="M20" t="n">
-        <v>1.105269562458358</v>
+        <v>0.07064919119722571</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>233.8899993896484</v>
+        <v>229.7400054931641</v>
       </c>
       <c r="B21" t="n">
-        <v>236.2200012207031</v>
+        <v>233.2200012207031</v>
       </c>
       <c r="C21" t="n">
-        <v>232.6000061035156</v>
+        <v>229.5700073242188</v>
       </c>
       <c r="D21" t="n">
-        <v>235.8600006103516</v>
+        <v>231.4100036621094</v>
       </c>
       <c r="E21" t="n">
-        <v>38846600</v>
+        <v>38776700</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -1266,39 +1266,39 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>234.2539978027344</v>
+        <v>233.0160003662109</v>
       </c>
       <c r="I21" t="n">
-        <v>64.70208044369095</v>
+        <v>66.3857215469113</v>
       </c>
       <c r="J21" t="n">
-        <v>232.0730259210808</v>
+        <v>231.8523931920944</v>
       </c>
       <c r="K21" t="n">
-        <v>229.8554331369073</v>
+        <v>231.4600084202518</v>
       </c>
       <c r="L21" t="n">
-        <v>2.217592784173547</v>
+        <v>0.3923847718426714</v>
       </c>
       <c r="M21" t="n">
-        <v>1.327734206801396</v>
+        <v>0.1349963073263148</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>234.0800018310547</v>
+        <v>233.3150024414062</v>
       </c>
       <c r="B22" t="n">
-        <v>235.1399993896484</v>
+        <v>234.5500030517578</v>
       </c>
       <c r="C22" t="n">
-        <v>227.7599945068359</v>
+        <v>232.5500030517578</v>
       </c>
       <c r="D22" t="n">
-        <v>230.7599945068359</v>
+        <v>234.24169921875</v>
       </c>
       <c r="E22" t="n">
-        <v>52287000</v>
+        <v>8540119</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -1307,104 +1307,22 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>234.0499969482422</v>
+        <v>232.5683410644531</v>
       </c>
       <c r="I22" t="n">
-        <v>57.29853319563809</v>
+        <v>64.90883126466511</v>
       </c>
       <c r="J22" t="n">
-        <v>231.8710210881201</v>
+        <v>232.2199787346568</v>
       </c>
       <c r="K22" t="n">
-        <v>229.9224376828279</v>
+        <v>231.6660595905109</v>
       </c>
       <c r="L22" t="n">
-        <v>1.948583405292169</v>
+        <v>0.5539191441459366</v>
       </c>
       <c r="M22" t="n">
-        <v>1.451904046499551</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="n">
-        <v>229.9799957275391</v>
-      </c>
-      <c r="B23" t="n">
-        <v>230.8200073242188</v>
-      </c>
-      <c r="C23" t="n">
-        <v>228.4100036621094</v>
-      </c>
-      <c r="D23" t="n">
-        <v>230.5700073242188</v>
-      </c>
-      <c r="E23" t="n">
-        <v>31109500</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>233.7339996337891</v>
-      </c>
-      <c r="I23" t="n">
-        <v>55.55556554920209</v>
-      </c>
-      <c r="J23" t="n">
-        <v>231.670865124443</v>
-      </c>
-      <c r="K23" t="n">
-        <v>229.9704058044125</v>
-      </c>
-      <c r="L23" t="n">
-        <v>1.700459320030518</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.501615101205744</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>229.7400054931641</v>
-      </c>
-      <c r="B24" t="n">
-        <v>233.1999969482422</v>
-      </c>
-      <c r="C24" t="n">
-        <v>229.5700073242188</v>
-      </c>
-      <c r="D24" t="n">
-        <v>231.5800018310547</v>
-      </c>
-      <c r="E24" t="n">
-        <v>23525946</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="n">
-        <v>233.05</v>
-      </c>
-      <c r="I24" t="n">
-        <v>66.57728612226379</v>
-      </c>
-      <c r="J24" t="n">
-        <v>231.6568861562294</v>
-      </c>
-      <c r="K24" t="n">
-        <v>230.0896351397193</v>
-      </c>
-      <c r="L24" t="n">
-        <v>1.567251016510141</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.514742284266624</v>
+        <v>0.2187808746902392</v>
       </c>
     </row>
   </sheetData>
